--- a/biology/Botanique/Cariñena_(DO)/Cariñena_(DO).xlsx
+++ b/biology/Botanique/Cariñena_(DO)/Cariñena_(DO).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cari%C3%B1ena_(DO)</t>
+          <t>Cariñena_(DO)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Cariñena est un vin réglé par l'AOC (Denominación de Origen) produit dans la province de Saragosse. Sa création date de 1933 et son centre est la ville de Cariñena. C'est l'AOC doyenne de la Communauté autonome d'Aragon, et l'une des plus anciennes d'Espagne. Située à 50 kilomètres de Saragosse, au sud de l'Ebre, dans la comarque du Campo de Cariñena, encadrée au sud par la Sierra Virgen et à l'ouest par la région vinicole de la DO de Calatayud.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cari%C3%B1ena_(DO)</t>
+          <t>Cariñena_(DO)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Environnement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terrain surgit à partir de 400 mètres d'altitude, s'élève vers le sud et atteint l'altitude de 800 mètres. Le sol est composé de calcaire rougeâtre sur des strates de rochers de carbonate de calcium et, à certains endroits, de l'ardoise et de l'argile.
 Le climat est continental avec des grandes variations thermiques, non seulement entre l'été (ou l'on dépasse 40 °C) et l'hiver (températures minimales de −5 à −8 °C) sinon aussi entre le jour et la nuit. Autre facteur climatique caractéristique est le cers, cierzo en espagnol, vent froid et sec du nord-ouest.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cari%C3%B1ena_(DO)</t>
+          <t>Cariñena_(DO)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Cépages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Rouges : Cariñena ou Mazuela, Grenache, Juan Ibáñez, Tempranillo et Cabernet sauvignon.
 Blancs : Macabeu, Grenache blanc, Moscatel romain et Parellada.
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cari%C3%B1ena_(DO)</t>
+          <t>Cariñena_(DO)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Communes appartenant à l'AOC</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les communes de la DO Cariñena se trouvent dans les comarques du Campo de Cariñena et de Valdejalón.
 Aguarón, Aladrén, Alfamén, Almonacid de la Sierra, Alpartir, Cariñena, Cosuenda, Encinacorba, Longares, Mezalocha, Muel, Paniza, Tosos et Villanueva de Huerva.
@@ -592,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cari%C3%B1ena_(DO)</t>
+          <t>Cariñena_(DO)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,7 +628,9 @@
           <t>Millésimes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>1980 Bonne
 1981 Excellente
@@ -649,7 +669,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cari%C3%B1ena_(DO)</t>
+          <t>Cariñena_(DO)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -667,7 +687,9 @@
           <t>Caves</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Abrera, S.A.
 Bodegas Ignacio Marin, S.L.
